--- a/Code/Results/Cases/Case_0_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_96/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06003394374908311</v>
+        <v>0.01227921794887266</v>
       </c>
       <c r="D2">
-        <v>0.09958156662774975</v>
+        <v>0.005609377539737892</v>
       </c>
       <c r="E2">
-        <v>11.27082905923817</v>
+        <v>2.608964062146242</v>
       </c>
       <c r="F2">
-        <v>1.714776573262938</v>
+        <v>0.3904591161577287</v>
       </c>
       <c r="G2">
-        <v>2.046209118422198</v>
+        <v>0.2695889788264481</v>
       </c>
       <c r="H2">
-        <v>0.7923444760428993</v>
+        <v>0.3526004108113483</v>
       </c>
       <c r="I2">
-        <v>1.314550540946627</v>
+        <v>0.2830542470305559</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>42.8035368221112</v>
+        <v>10.73710584379222</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04539392349038707</v>
+        <v>0.01065902956059972</v>
       </c>
       <c r="D3">
-        <v>0.06398604026442101</v>
+        <v>0.004854110305661408</v>
       </c>
       <c r="E3">
-        <v>8.751429513863712</v>
+        <v>2.271200123305533</v>
       </c>
       <c r="F3">
-        <v>1.196979302898356</v>
+        <v>0.3870870897715051</v>
       </c>
       <c r="G3">
-        <v>1.398071162477166</v>
+        <v>0.2616732306463661</v>
       </c>
       <c r="H3">
-        <v>0.5292465613786987</v>
+        <v>0.3644292388640196</v>
       </c>
       <c r="I3">
-        <v>0.9099180201009318</v>
+        <v>0.2813798740379951</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>33.92446736129358</v>
+        <v>9.379640728548338</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03870612092033809</v>
+        <v>0.009668066354812765</v>
       </c>
       <c r="D4">
-        <v>0.04950432612617206</v>
+        <v>0.004440988771477805</v>
       </c>
       <c r="E4">
-        <v>7.565738962824668</v>
+        <v>2.064207235477767</v>
       </c>
       <c r="F4">
-        <v>0.9697519346095902</v>
+        <v>0.3867572294171211</v>
       </c>
       <c r="G4">
-        <v>1.116659664950433</v>
+        <v>0.2586189752852448</v>
       </c>
       <c r="H4">
-        <v>0.4196003465317517</v>
+        <v>0.3729417240158881</v>
       </c>
       <c r="I4">
-        <v>0.7334095490098065</v>
+        <v>0.2816988933906401</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>29.58569182225176</v>
+        <v>8.545494151279343</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03627548777367195</v>
+        <v>0.00926499227444566</v>
       </c>
       <c r="D5">
-        <v>0.04456380421943607</v>
+        <v>0.004284430439643216</v>
       </c>
       <c r="E5">
-        <v>7.128271853400605</v>
+        <v>1.979925444927233</v>
       </c>
       <c r="F5">
-        <v>0.8896810829873658</v>
+        <v>0.3870438209648128</v>
       </c>
       <c r="G5">
-        <v>1.0179247875692</v>
+        <v>0.2578076572723234</v>
       </c>
       <c r="H5">
-        <v>0.3820970805537627</v>
+        <v>0.3767154562864903</v>
       </c>
       <c r="I5">
-        <v>0.6713960222861743</v>
+        <v>0.2821545117313349</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.96153111776061</v>
+        <v>8.205305376135357</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03588546453910624</v>
+        <v>0.009198101585312202</v>
       </c>
       <c r="D6">
-        <v>0.04378810622059959</v>
+        <v>0.004259119711484516</v>
       </c>
       <c r="E6">
-        <v>7.057727209401264</v>
+        <v>1.965933892938637</v>
       </c>
       <c r="F6">
-        <v>0.8769832403338143</v>
+        <v>0.3871163577902266</v>
       </c>
       <c r="G6">
-        <v>1.002287500272416</v>
+        <v>0.257698511032487</v>
       </c>
       <c r="H6">
-        <v>0.376212818504186</v>
+        <v>0.3773602223658798</v>
       </c>
       <c r="I6">
-        <v>0.6615715525676436</v>
+        <v>0.2822494557354744</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.69849289400759</v>
+        <v>8.148798348647745</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0386723530197699</v>
+        <v>0.009662627585313999</v>
       </c>
       <c r="D7">
-        <v>0.04943445717606565</v>
+        <v>0.004438830831766438</v>
       </c>
       <c r="E7">
-        <v>7.55968647839407</v>
+        <v>2.063070337973215</v>
       </c>
       <c r="F7">
-        <v>0.9686290591801594</v>
+        <v>0.3867594115495763</v>
       </c>
       <c r="G7">
-        <v>1.115273517020341</v>
+        <v>0.2586063062107939</v>
       </c>
       <c r="H7">
-        <v>0.4190698917140026</v>
+        <v>0.3729913958870554</v>
       </c>
       <c r="I7">
-        <v>0.7325391873728364</v>
+        <v>0.2817037367102131</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>29.56330447143893</v>
+        <v>8.540907456550997</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05421348660519953</v>
+        <v>0.01171964578835372</v>
       </c>
       <c r="D8">
-        <v>0.08485373173412469</v>
+        <v>0.005337879485328045</v>
       </c>
       <c r="E8">
-        <v>10.28005157572622</v>
+        <v>2.492401944929554</v>
       </c>
       <c r="F8">
-        <v>1.506968960390594</v>
+        <v>0.3889250201663828</v>
       </c>
       <c r="G8">
-        <v>1.784928099667312</v>
+        <v>0.2664720753727181</v>
       </c>
       <c r="H8">
-        <v>0.6848851340217692</v>
+        <v>0.3564139338716785</v>
       </c>
       <c r="I8">
-        <v>1.151792593413042</v>
+        <v>0.2821893329126297</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>39.37067703252927</v>
+        <v>10.26912364005079</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05421348660519953</v>
+        <v>0.01579461418429418</v>
       </c>
       <c r="D9">
-        <v>0.08485373173412469</v>
+        <v>0.007546911442638304</v>
       </c>
       <c r="E9">
-        <v>10.28005157572622</v>
+        <v>3.338998085063736</v>
       </c>
       <c r="F9">
-        <v>1.506968960390594</v>
+        <v>0.4077542714360476</v>
       </c>
       <c r="G9">
-        <v>1.784928099667312</v>
+        <v>0.297192513568703</v>
       </c>
       <c r="H9">
-        <v>0.6848851340217692</v>
+        <v>0.3342530936293286</v>
       </c>
       <c r="I9">
-        <v>1.151792593413042</v>
+        <v>0.2944376871778047</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>39.37067703252927</v>
+        <v>13.65818323980091</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05421348660519953</v>
+        <v>0.01883006138178445</v>
       </c>
       <c r="D10">
-        <v>0.08485373173412469</v>
+        <v>0.009506860980877718</v>
       </c>
       <c r="E10">
-        <v>10.28005157572622</v>
+        <v>3.966268877894095</v>
       </c>
       <c r="F10">
-        <v>1.506968960390594</v>
+        <v>0.4315814725915033</v>
       </c>
       <c r="G10">
-        <v>1.784928099667312</v>
+        <v>0.3304697197226147</v>
       </c>
       <c r="H10">
-        <v>0.6848851340217692</v>
+        <v>0.3248969499598502</v>
       </c>
       <c r="I10">
-        <v>1.151792593413042</v>
+        <v>0.3111916446924354</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.37067703252927</v>
+        <v>16.15642290209047</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05421348660519953</v>
+        <v>0.02022403853562338</v>
       </c>
       <c r="D11">
-        <v>0.08485373173412469</v>
+        <v>0.01048701630394078</v>
       </c>
       <c r="E11">
-        <v>10.28005157572622</v>
+        <v>4.253382139341056</v>
       </c>
       <c r="F11">
-        <v>1.506968960390594</v>
+        <v>0.4448430774316563</v>
       </c>
       <c r="G11">
-        <v>1.784928099667312</v>
+        <v>0.3482496625129414</v>
       </c>
       <c r="H11">
-        <v>0.6848851340217692</v>
+        <v>0.3222852803365157</v>
       </c>
       <c r="I11">
-        <v>1.151792593413042</v>
+        <v>0.3206958932375557</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.37067703252927</v>
+        <v>17.2968004615264</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05421348660519953</v>
+        <v>0.02075415465971986</v>
       </c>
       <c r="D12">
-        <v>0.08485373173412469</v>
+        <v>0.01087227842564431</v>
       </c>
       <c r="E12">
-        <v>10.28005157572622</v>
+        <v>4.362412856763115</v>
       </c>
       <c r="F12">
-        <v>1.506968960390594</v>
+        <v>0.450235129984037</v>
       </c>
       <c r="G12">
-        <v>1.784928099667312</v>
+        <v>0.3553898976526426</v>
       </c>
       <c r="H12">
-        <v>0.6848851340217692</v>
+        <v>0.3215450554629768</v>
       </c>
       <c r="I12">
-        <v>1.151792593413042</v>
+        <v>0.324582890178057</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>39.37067703252927</v>
+        <v>17.72937947810397</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05421348660519953</v>
+        <v>0.02063987869390616</v>
       </c>
       <c r="D13">
-        <v>0.08485373173412469</v>
+        <v>0.01078865564686993</v>
       </c>
       <c r="E13">
-        <v>10.28005157572622</v>
+        <v>4.338916576706936</v>
       </c>
       <c r="F13">
-        <v>1.506968960390594</v>
+        <v>0.4490570332289394</v>
       </c>
       <c r="G13">
-        <v>1.784928099667312</v>
+        <v>0.3538335518760505</v>
       </c>
       <c r="H13">
-        <v>0.6848851340217692</v>
+        <v>0.3216932108749546</v>
       </c>
       <c r="I13">
-        <v>1.151792593413042</v>
+        <v>0.3237326668961913</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>39.37067703252927</v>
+        <v>17.63617977576405</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05421348660519953</v>
+        <v>0.02026760431099461</v>
       </c>
       <c r="D14">
-        <v>0.08485373173412469</v>
+        <v>0.01051842137155745</v>
       </c>
       <c r="E14">
-        <v>10.28005157572622</v>
+        <v>4.26234568267904</v>
       </c>
       <c r="F14">
-        <v>1.506968960390594</v>
+        <v>0.445279137469683</v>
       </c>
       <c r="G14">
-        <v>1.784928099667312</v>
+        <v>0.3488287680395814</v>
       </c>
       <c r="H14">
-        <v>0.6848851340217692</v>
+        <v>0.3222193237283193</v>
       </c>
       <c r="I14">
-        <v>1.151792593413042</v>
+        <v>0.3210098065812375</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>39.37067703252927</v>
+        <v>17.33237302375636</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05421348660519953</v>
+        <v>0.02003987930256557</v>
       </c>
       <c r="D15">
-        <v>0.08485373173412469</v>
+        <v>0.01035477308476374</v>
       </c>
       <c r="E15">
-        <v>10.28005157572622</v>
+        <v>4.215485469250837</v>
       </c>
       <c r="F15">
-        <v>1.506968960390594</v>
+        <v>0.4430139392336088</v>
       </c>
       <c r="G15">
-        <v>1.784928099667312</v>
+        <v>0.3458170801641813</v>
       </c>
       <c r="H15">
-        <v>0.6848851340217692</v>
+        <v>0.3225743528824836</v>
       </c>
       <c r="I15">
-        <v>1.151792593413042</v>
+        <v>0.3193799991004269</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.37067703252927</v>
+        <v>17.14638495883963</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05421348660519953</v>
+        <v>0.0187392559802575</v>
       </c>
       <c r="D16">
-        <v>0.08485373173412469</v>
+        <v>0.009444702211382605</v>
       </c>
       <c r="E16">
-        <v>10.28005157572622</v>
+        <v>3.947545313730188</v>
       </c>
       <c r="F16">
-        <v>1.506968960390594</v>
+        <v>0.4307653846718011</v>
       </c>
       <c r="G16">
-        <v>1.784928099667312</v>
+        <v>0.3293632384767733</v>
       </c>
       <c r="H16">
-        <v>0.6848851340217692</v>
+        <v>0.325101757167559</v>
       </c>
       <c r="I16">
-        <v>1.151792593413042</v>
+        <v>0.3106098586110235</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.37067703252927</v>
+        <v>16.08199033689868</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05421348660519953</v>
+        <v>0.01794497585922272</v>
       </c>
       <c r="D17">
-        <v>0.08485373173412469</v>
+        <v>0.0089100293698543</v>
       </c>
       <c r="E17">
-        <v>10.28005157572622</v>
+        <v>3.783661137648835</v>
       </c>
       <c r="F17">
-        <v>1.506968960390594</v>
+        <v>0.4238869641469591</v>
       </c>
       <c r="G17">
-        <v>1.784928099667312</v>
+        <v>0.3199651356800359</v>
       </c>
       <c r="H17">
-        <v>0.6848851340217692</v>
+        <v>0.3270819945216346</v>
       </c>
       <c r="I17">
-        <v>1.151792593413042</v>
+        <v>0.3057238805627094</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>39.37067703252927</v>
+        <v>15.43014445442037</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05421348660519953</v>
+        <v>0.01748934026135629</v>
       </c>
       <c r="D18">
-        <v>0.08485373173412469</v>
+        <v>0.008610749157544006</v>
       </c>
       <c r="E18">
-        <v>10.28005157572622</v>
+        <v>3.689561904291224</v>
       </c>
       <c r="F18">
-        <v>1.506968960390594</v>
+        <v>0.4201573318590022</v>
       </c>
       <c r="G18">
-        <v>1.784928099667312</v>
+        <v>0.3148065540194978</v>
       </c>
       <c r="H18">
-        <v>0.6848851340217692</v>
+        <v>0.3283749944092307</v>
       </c>
       <c r="I18">
-        <v>1.151792593413042</v>
+        <v>0.3030897373378423</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>39.37067703252927</v>
+        <v>15.05557680917173</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05421348660519953</v>
+        <v>0.01733526783772987</v>
       </c>
       <c r="D19">
-        <v>0.08485373173412469</v>
+        <v>0.008510794748083583</v>
       </c>
       <c r="E19">
-        <v>10.28005157572622</v>
+        <v>3.657727901288069</v>
       </c>
       <c r="F19">
-        <v>1.506968960390594</v>
+        <v>0.4189328217052974</v>
       </c>
       <c r="G19">
-        <v>1.784928099667312</v>
+        <v>0.3131015469789276</v>
       </c>
       <c r="H19">
-        <v>0.6848851340217692</v>
+        <v>0.3288388698191369</v>
       </c>
       <c r="I19">
-        <v>1.151792593413042</v>
+        <v>0.3022276029828888</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>39.37067703252927</v>
+        <v>14.92881071849581</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05421348660519953</v>
+        <v>0.01802940026134792</v>
       </c>
       <c r="D20">
-        <v>0.08485373173412469</v>
+        <v>0.008966082821800114</v>
       </c>
       <c r="E20">
-        <v>10.28005157572622</v>
+        <v>3.801089687133071</v>
       </c>
       <c r="F20">
-        <v>1.506968960390594</v>
+        <v>0.4245955711351428</v>
       </c>
       <c r="G20">
-        <v>1.784928099667312</v>
+        <v>0.3209398258256755</v>
       </c>
       <c r="H20">
-        <v>0.6848851340217692</v>
+        <v>0.3268551672356068</v>
       </c>
       <c r="I20">
-        <v>1.151792593413042</v>
+        <v>0.3062256491518625</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>39.37067703252927</v>
+        <v>15.49949637667424</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05421348660519953</v>
+        <v>0.02037688632798051</v>
       </c>
       <c r="D21">
-        <v>0.08485373173412469</v>
+        <v>0.01059740179571378</v>
       </c>
       <c r="E21">
-        <v>10.28005157572622</v>
+        <v>4.284827624018988</v>
       </c>
       <c r="F21">
-        <v>1.506968960390594</v>
+        <v>0.4463785717697135</v>
       </c>
       <c r="G21">
-        <v>1.784928099667312</v>
+        <v>0.350287513579957</v>
       </c>
       <c r="H21">
-        <v>0.6848851340217692</v>
+        <v>0.3220579396967764</v>
       </c>
       <c r="I21">
-        <v>1.151792593413042</v>
+        <v>0.3218016208403895</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>39.37067703252927</v>
+        <v>17.42158675923218</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05421348660519953</v>
+        <v>0.02192439102130805</v>
       </c>
       <c r="D22">
-        <v>0.08485373173412469</v>
+        <v>0.01174643745934389</v>
       </c>
       <c r="E22">
-        <v>10.28005157572622</v>
+        <v>4.602797060795865</v>
       </c>
       <c r="F22">
-        <v>1.506968960390594</v>
+        <v>0.4627835307563117</v>
       </c>
       <c r="G22">
-        <v>1.784928099667312</v>
+        <v>0.3718560107067219</v>
       </c>
       <c r="H22">
-        <v>0.6848851340217692</v>
+        <v>0.3203787434270851</v>
       </c>
       <c r="I22">
-        <v>1.151792593413042</v>
+        <v>0.333668352604704</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>39.37067703252927</v>
+        <v>18.68220869109211</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05421348660519953</v>
+        <v>0.02109711657258373</v>
       </c>
       <c r="D23">
-        <v>0.08485373173412469</v>
+        <v>0.01112511877056477</v>
       </c>
       <c r="E23">
-        <v>10.28005157572622</v>
+        <v>4.432905423895477</v>
       </c>
       <c r="F23">
-        <v>1.506968960390594</v>
+        <v>0.4538219982703993</v>
       </c>
       <c r="G23">
-        <v>1.784928099667312</v>
+        <v>0.3601165719256869</v>
       </c>
       <c r="H23">
-        <v>0.6848851340217692</v>
+        <v>0.3211375222137747</v>
       </c>
       <c r="I23">
-        <v>1.151792593413042</v>
+        <v>0.3271746029092668</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>39.37067703252927</v>
+        <v>18.00892251162475</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05421348660519953</v>
+        <v>0.01799122888052551</v>
       </c>
       <c r="D24">
-        <v>0.08485373173412469</v>
+        <v>0.008940715896233797</v>
       </c>
       <c r="E24">
-        <v>10.28005157572622</v>
+        <v>3.793209870232658</v>
       </c>
       <c r="F24">
-        <v>1.506968960390594</v>
+        <v>0.424274511155545</v>
       </c>
       <c r="G24">
-        <v>1.784928099667312</v>
+        <v>0.3204984088687581</v>
       </c>
       <c r="H24">
-        <v>0.6848851340217692</v>
+        <v>0.3269572354322321</v>
       </c>
       <c r="I24">
-        <v>1.151792593413042</v>
+        <v>0.3059982561814607</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>39.37067703252927</v>
+        <v>15.4681418028153</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05421348660519953</v>
+        <v>0.0146862046637608</v>
       </c>
       <c r="D25">
-        <v>0.08485373173412469</v>
+        <v>0.00689507716753468</v>
       </c>
       <c r="E25">
-        <v>10.28005157572622</v>
+        <v>3.109234304755802</v>
       </c>
       <c r="F25">
-        <v>1.506968960390594</v>
+        <v>0.4009878984829527</v>
       </c>
       <c r="G25">
-        <v>1.784928099667312</v>
+        <v>0.2871048887092513</v>
       </c>
       <c r="H25">
-        <v>0.6848851340217692</v>
+        <v>0.3390780872967696</v>
       </c>
       <c r="I25">
-        <v>1.151792593413042</v>
+        <v>0.2898271735272928</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>39.37067703252927</v>
+        <v>12.74054150586369</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_96/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01227921794887266</v>
+        <v>0.06003394374909021</v>
       </c>
       <c r="D2">
-        <v>0.005609377539737892</v>
+        <v>0.09958156662769113</v>
       </c>
       <c r="E2">
-        <v>2.608964062146242</v>
+        <v>11.27082905923822</v>
       </c>
       <c r="F2">
-        <v>0.3904591161577287</v>
+        <v>1.71477657326291</v>
       </c>
       <c r="G2">
-        <v>0.2695889788264481</v>
+        <v>2.046209118422169</v>
       </c>
       <c r="H2">
-        <v>0.3526004108113483</v>
+        <v>0.7923444760428993</v>
       </c>
       <c r="I2">
-        <v>0.2830542470305559</v>
+        <v>1.314550540946613</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.73710584379222</v>
+        <v>42.80353682211131</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01065902956059972</v>
+        <v>0.04539392349049365</v>
       </c>
       <c r="D3">
-        <v>0.004854110305661408</v>
+        <v>0.06398604026453469</v>
       </c>
       <c r="E3">
-        <v>2.271200123305533</v>
+        <v>8.751429513863769</v>
       </c>
       <c r="F3">
-        <v>0.3870870897715051</v>
+        <v>1.19697930289837</v>
       </c>
       <c r="G3">
-        <v>0.2616732306463661</v>
+        <v>1.398071162477279</v>
       </c>
       <c r="H3">
-        <v>0.3644292388640196</v>
+        <v>0.529246561378713</v>
       </c>
       <c r="I3">
-        <v>0.2813798740379951</v>
+        <v>0.9099180201009176</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.379640728548338</v>
+        <v>33.92446736129369</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009668066354812765</v>
+        <v>0.03870612092033099</v>
       </c>
       <c r="D4">
-        <v>0.004440988771477805</v>
+        <v>0.04950432612638522</v>
       </c>
       <c r="E4">
-        <v>2.064207235477767</v>
+        <v>7.565738962824668</v>
       </c>
       <c r="F4">
-        <v>0.3867572294171211</v>
+        <v>0.9697519346095902</v>
       </c>
       <c r="G4">
-        <v>0.2586189752852448</v>
+        <v>1.11665966495039</v>
       </c>
       <c r="H4">
-        <v>0.3729417240158881</v>
+        <v>0.419600346531638</v>
       </c>
       <c r="I4">
-        <v>0.2816988933906401</v>
+        <v>0.7334095490098278</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.545494151279343</v>
+        <v>29.58569182225182</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.00926499227444566</v>
+        <v>0.03627548777357958</v>
       </c>
       <c r="D5">
-        <v>0.004284430439643216</v>
+        <v>0.04456380421959594</v>
       </c>
       <c r="E5">
-        <v>1.979925444927233</v>
+        <v>7.12827185340052</v>
       </c>
       <c r="F5">
-        <v>0.3870438209648128</v>
+        <v>0.8896810829873516</v>
       </c>
       <c r="G5">
-        <v>0.2578076572723234</v>
+        <v>1.017924787569143</v>
       </c>
       <c r="H5">
-        <v>0.3767154562864903</v>
+        <v>0.3820970805537485</v>
       </c>
       <c r="I5">
-        <v>0.2821545117313349</v>
+        <v>0.6713960222861459</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.205305376135357</v>
+        <v>27.96153111776061</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.009198101585312202</v>
+        <v>0.03588546453900676</v>
       </c>
       <c r="D6">
-        <v>0.004259119711484516</v>
+        <v>0.04378810622038642</v>
       </c>
       <c r="E6">
-        <v>1.965933892938637</v>
+        <v>7.057727209401349</v>
       </c>
       <c r="F6">
-        <v>0.3871163577902266</v>
+        <v>0.8769832403338569</v>
       </c>
       <c r="G6">
-        <v>0.257698511032487</v>
+        <v>1.002287500272402</v>
       </c>
       <c r="H6">
-        <v>0.3773602223658798</v>
+        <v>0.3762128185042144</v>
       </c>
       <c r="I6">
-        <v>0.2822494557354744</v>
+        <v>0.6615715525676791</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.148798348647745</v>
+        <v>27.69849289400781</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009662627585313999</v>
+        <v>0.03867235301967753</v>
       </c>
       <c r="D7">
-        <v>0.004438830831766438</v>
+        <v>0.04943445717596262</v>
       </c>
       <c r="E7">
-        <v>2.063070337973215</v>
+        <v>7.559686478394184</v>
       </c>
       <c r="F7">
-        <v>0.3867594115495763</v>
+        <v>0.968629059180131</v>
       </c>
       <c r="G7">
-        <v>0.2586063062107939</v>
+        <v>1.115273517020256</v>
       </c>
       <c r="H7">
-        <v>0.3729913958870554</v>
+        <v>0.4190698917141162</v>
       </c>
       <c r="I7">
-        <v>0.2817037367102131</v>
+        <v>0.7325391873728435</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.540907456550997</v>
+        <v>29.56330447143898</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01171964578835372</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D8">
-        <v>0.005337879485328045</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E8">
-        <v>2.492401944929554</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F8">
-        <v>0.3889250201663828</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G8">
-        <v>0.2664720753727181</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H8">
-        <v>0.3564139338716785</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I8">
-        <v>0.2821893329126297</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.26912364005079</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01579461418429418</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D9">
-        <v>0.007546911442638304</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E9">
-        <v>3.338998085063736</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F9">
-        <v>0.4077542714360476</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G9">
-        <v>0.297192513568703</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H9">
-        <v>0.3342530936293286</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I9">
-        <v>0.2944376871778047</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.65818323980091</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01883006138178445</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D10">
-        <v>0.009506860980877718</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E10">
-        <v>3.966268877894095</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F10">
-        <v>0.4315814725915033</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G10">
-        <v>0.3304697197226147</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H10">
-        <v>0.3248969499598502</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I10">
-        <v>0.3111916446924354</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.15642290209047</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02022403853562338</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D11">
-        <v>0.01048701630394078</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E11">
-        <v>4.253382139341056</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F11">
-        <v>0.4448430774316563</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G11">
-        <v>0.3482496625129414</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H11">
-        <v>0.3222852803365157</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I11">
-        <v>0.3206958932375557</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.2968004615264</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02075415465971986</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D12">
-        <v>0.01087227842564431</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E12">
-        <v>4.362412856763115</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F12">
-        <v>0.450235129984037</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G12">
-        <v>0.3553898976526426</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H12">
-        <v>0.3215450554629768</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I12">
-        <v>0.324582890178057</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.72937947810397</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02063987869390616</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D13">
-        <v>0.01078865564686993</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E13">
-        <v>4.338916576706936</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F13">
-        <v>0.4490570332289394</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G13">
-        <v>0.3538335518760505</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H13">
-        <v>0.3216932108749546</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I13">
-        <v>0.3237326668961913</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.63617977576405</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02026760431099461</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D14">
-        <v>0.01051842137155745</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E14">
-        <v>4.26234568267904</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F14">
-        <v>0.445279137469683</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G14">
-        <v>0.3488287680395814</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H14">
-        <v>0.3222193237283193</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I14">
-        <v>0.3210098065812375</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.33237302375636</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02003987930256557</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D15">
-        <v>0.01035477308476374</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E15">
-        <v>4.215485469250837</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F15">
-        <v>0.4430139392336088</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G15">
-        <v>0.3458170801641813</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H15">
-        <v>0.3225743528824836</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I15">
-        <v>0.3193799991004269</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.14638495883963</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0187392559802575</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D16">
-        <v>0.009444702211382605</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E16">
-        <v>3.947545313730188</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F16">
-        <v>0.4307653846718011</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G16">
-        <v>0.3293632384767733</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H16">
-        <v>0.325101757167559</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I16">
-        <v>0.3106098586110235</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.08199033689868</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01794497585922272</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D17">
-        <v>0.0089100293698543</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E17">
-        <v>3.783661137648835</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F17">
-        <v>0.4238869641469591</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G17">
-        <v>0.3199651356800359</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H17">
-        <v>0.3270819945216346</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I17">
-        <v>0.3057238805627094</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.43014445442037</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01748934026135629</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D18">
-        <v>0.008610749157544006</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E18">
-        <v>3.689561904291224</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F18">
-        <v>0.4201573318590022</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G18">
-        <v>0.3148065540194978</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H18">
-        <v>0.3283749944092307</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I18">
-        <v>0.3030897373378423</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.05557680917173</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01733526783772987</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D19">
-        <v>0.008510794748083583</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E19">
-        <v>3.657727901288069</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F19">
-        <v>0.4189328217052974</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G19">
-        <v>0.3131015469789276</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H19">
-        <v>0.3288388698191369</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I19">
-        <v>0.3022276029828888</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.92881071849581</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01802940026134792</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D20">
-        <v>0.008966082821800114</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E20">
-        <v>3.801089687133071</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F20">
-        <v>0.4245955711351428</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G20">
-        <v>0.3209398258256755</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H20">
-        <v>0.3268551672356068</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I20">
-        <v>0.3062256491518625</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.49949637667424</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02037688632798051</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D21">
-        <v>0.01059740179571378</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E21">
-        <v>4.284827624018988</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F21">
-        <v>0.4463785717697135</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G21">
-        <v>0.350287513579957</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H21">
-        <v>0.3220579396967764</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I21">
-        <v>0.3218016208403895</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.42158675923218</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02192439102130805</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D22">
-        <v>0.01174643745934389</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E22">
-        <v>4.602797060795865</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F22">
-        <v>0.4627835307563117</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G22">
-        <v>0.3718560107067219</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H22">
-        <v>0.3203787434270851</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I22">
-        <v>0.333668352604704</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.68220869109211</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02109711657258373</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D23">
-        <v>0.01112511877056477</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E23">
-        <v>4.432905423895477</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F23">
-        <v>0.4538219982703993</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G23">
-        <v>0.3601165719256869</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H23">
-        <v>0.3211375222137747</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I23">
-        <v>0.3271746029092668</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.00892251162475</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01799122888052551</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D24">
-        <v>0.008940715896233797</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E24">
-        <v>3.793209870232658</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F24">
-        <v>0.424274511155545</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G24">
-        <v>0.3204984088687581</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H24">
-        <v>0.3269572354322321</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I24">
-        <v>0.3059982561814607</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.4681418028153</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0146862046637608</v>
+        <v>0.05421348660518532</v>
       </c>
       <c r="D25">
-        <v>0.00689507716753468</v>
+        <v>0.08485373173422417</v>
       </c>
       <c r="E25">
-        <v>3.109234304755802</v>
+        <v>10.28005157572628</v>
       </c>
       <c r="F25">
-        <v>0.4009878984829527</v>
+        <v>1.506968960390552</v>
       </c>
       <c r="G25">
-        <v>0.2871048887092513</v>
+        <v>1.784928099667283</v>
       </c>
       <c r="H25">
-        <v>0.3390780872967696</v>
+        <v>0.684885134021755</v>
       </c>
       <c r="I25">
-        <v>0.2898271735272928</v>
+        <v>1.15179259341302</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.74054150586369</v>
+        <v>39.37067703252939</v>
       </c>
       <c r="N25">
         <v>0</v>
